--- a/teste_price.xlsx
+++ b/teste_price.xlsx
@@ -14,157 +14,52 @@
   <sheets>
     <sheet name="teste_price" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>nome</t>
   </si>
   <si>
-    <t>ID_SAP</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
     <t>lon</t>
   </si>
   <si>
-    <t>safra</t>
-  </si>
-  <si>
-    <t>estimativa_financiamento</t>
-  </si>
-  <si>
-    <t>estimativa_subsidio</t>
-  </si>
-  <si>
     <t>uf</t>
   </si>
   <si>
-    <t>regiao</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
-    <t>bairro</t>
-  </si>
-  <si>
-    <t>preco_cheio</t>
-  </si>
-  <si>
     <t>avaliacao</t>
   </si>
   <si>
-    <t>financiamento</t>
-  </si>
-  <si>
-    <t>subsidio</t>
-  </si>
-  <si>
     <t>sub_max_f2</t>
   </si>
   <si>
-    <t>fipezap</t>
-  </si>
-  <si>
-    <t>vso_medio</t>
-  </si>
-  <si>
-    <t>vso_avm</t>
-  </si>
-  <si>
-    <t>renda_bruta_media</t>
-  </si>
-  <si>
     <t>renda_media</t>
   </si>
   <si>
-    <t>Bojo</t>
-  </si>
-  <si>
-    <t>Cauda</t>
-  </si>
-  <si>
     <t>dens_demog</t>
   </si>
   <si>
-    <t>rma1</t>
-  </si>
-  <si>
-    <t>rma2</t>
-  </si>
-  <si>
-    <t>rmb1</t>
-  </si>
-  <si>
     <t>rmb2</t>
   </si>
   <si>
     <t>rmc1</t>
   </si>
   <si>
-    <t>rmc2</t>
-  </si>
-  <si>
-    <t>rmd</t>
-  </si>
-  <si>
-    <t>rme</t>
-  </si>
-  <si>
-    <t>pcta1</t>
-  </si>
-  <si>
     <t>pcta2</t>
   </si>
   <si>
-    <t>pctb1</t>
-  </si>
-  <si>
-    <t>pctb2</t>
-  </si>
-  <si>
-    <t>pctc1</t>
-  </si>
-  <si>
-    <t>pctc2</t>
-  </si>
-  <si>
-    <t>pctd</t>
-  </si>
-  <si>
-    <t>pcte</t>
-  </si>
-  <si>
-    <t>pct_pead</t>
-  </si>
-  <si>
     <t>pct_algd</t>
   </si>
   <si>
     <t>estrategia</t>
   </si>
   <si>
-    <t>ufBA</t>
-  </si>
-  <si>
-    <t>ufCE</t>
-  </si>
-  <si>
-    <t>ufGO</t>
-  </si>
-  <si>
-    <t>ufPE</t>
-  </si>
-  <si>
-    <t>ufPR</t>
-  </si>
-  <si>
     <t>ufRJ</t>
   </si>
   <si>
@@ -174,48 +69,18 @@
     <t>ufSP</t>
   </si>
   <si>
-    <t>cidSP</t>
-  </si>
-  <si>
     <t>rg1</t>
   </si>
   <si>
-    <t>rg2</t>
-  </si>
-  <si>
-    <t>rg3</t>
-  </si>
-  <si>
-    <t>rg4</t>
-  </si>
-  <si>
-    <t>rg5</t>
-  </si>
-  <si>
     <t>capital</t>
   </si>
   <si>
-    <t>aglomerado11</t>
-  </si>
-  <si>
     <t>aglomerado21</t>
   </si>
   <si>
     <t>aglomerado22</t>
   </si>
   <si>
-    <t>aglomerado23</t>
-  </si>
-  <si>
-    <t>aglomerado_regiao11</t>
-  </si>
-  <si>
-    <t>aglomerado_regiao12</t>
-  </si>
-  <si>
-    <t>aglomerado_regiao13</t>
-  </si>
-  <si>
     <t>Saúde_ate_3km_influente</t>
   </si>
   <si>
@@ -228,22 +93,10 @@
     <t>parada de ônibus_maior_5km_influente</t>
   </si>
   <si>
-    <t>treino</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
     <t>bela/viva marajoara</t>
-  </si>
-  <si>
-    <t>RR30</t>
-  </si>
-  <si>
-    <t>SÃO PAULO</t>
-  </si>
-  <si>
-    <t>JARDIM SABARA</t>
   </si>
 </sst>
 </file>
@@ -727,9 +580,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,19 +903,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ52"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BP11" sqref="BP11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,380 +1003,80 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>-23.684670000000001</v>
+      </c>
+      <c r="C2">
+        <v>-46.691679999999998</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2">
-        <v>-23.684670000000001</v>
-      </c>
-      <c r="D2">
-        <v>-46.691679999999998</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
+      <c r="E2">
+        <v>200648.05729999999</v>
       </c>
       <c r="F2">
-        <v>131928.6838</v>
+        <v>29000</v>
       </c>
       <c r="G2">
-        <v>7449.4330449999998</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
+        <v>7483.3991610000003</v>
+      </c>
+      <c r="H2">
+        <v>9314.8926890000002</v>
       </c>
       <c r="I2">
+        <v>6809.0865960000001</v>
+      </c>
+      <c r="J2">
+        <v>4162.6630580000001</v>
+      </c>
+      <c r="K2">
+        <v>3.7011698000000003E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.17809259099999999</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2">
-        <v>188571.3199</v>
-      </c>
-      <c r="M2">
-        <v>200648.05729999999</v>
-      </c>
       <c r="N2">
-        <v>136522.94959999999</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5430.1732110000003</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>29000</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>6262.2960910000002</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>3498.8070160000002</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7483.3991610000003</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>2234.953516</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>4100.7867349999997</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>9314.8926890000002</v>
-      </c>
-      <c r="Y2">
-        <v>133560.35930000001</v>
-      </c>
-      <c r="Z2">
-        <v>24152.00721</v>
-      </c>
-      <c r="AA2">
-        <v>12698.976629999999</v>
-      </c>
-      <c r="AB2">
-        <v>6809.0865960000001</v>
-      </c>
-      <c r="AC2">
-        <v>4162.6630580000001</v>
-      </c>
-      <c r="AD2">
-        <v>2325.4746700000001</v>
-      </c>
-      <c r="AE2">
-        <v>1254.71603</v>
-      </c>
-      <c r="AF2">
-        <v>488.49280090000002</v>
-      </c>
-      <c r="AG2">
-        <v>1.6933594999999999E-2</v>
-      </c>
-      <c r="AH2">
-        <v>3.7011698000000003E-2</v>
-      </c>
-      <c r="AI2">
-        <v>0.14229124600000001</v>
-      </c>
-      <c r="AJ2">
-        <v>0.15548561399999999</v>
-      </c>
-      <c r="AK2">
-        <v>0.20650297000000001</v>
-      </c>
-      <c r="AL2">
-        <v>0.18605234000000001</v>
-      </c>
-      <c r="AM2">
-        <v>5.876754E-2</v>
-      </c>
-      <c r="AN2">
-        <v>0.19686742300000001</v>
-      </c>
-      <c r="AO2">
-        <v>0.71519039200000001</v>
-      </c>
-      <c r="AP2">
-        <v>0.17809259099999999</v>
-      </c>
-      <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
-        <v>1</v>
-      </c>
-      <c r="BA2">
-        <v>1</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>1</v>
-      </c>
-      <c r="BG2">
-        <v>1</v>
-      </c>
-      <c r="BH2">
-        <v>1</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="21" spans="33:34" x14ac:dyDescent="0.25">
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="26" spans="33:34" x14ac:dyDescent="0.25">
-      <c r="AH26" s="1"/>
-    </row>
-    <row r="29" spans="33:34" x14ac:dyDescent="0.25">
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="33:34" x14ac:dyDescent="0.25">
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="32" spans="33:34" x14ac:dyDescent="0.25">
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="47" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH47" s="1"/>
-    </row>
-    <row r="48" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH48" s="1"/>
-    </row>
-    <row r="52" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
